--- a/resources/SMOs-DetailsOperations.xlsx
+++ b/resources/SMOs-DetailsOperations.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Documents UNamur\Personnel\Projet TYPHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\IdeaProjects\typhon\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4245" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4245"/>
   </bookViews>
   <sheets>
     <sheet name="Liste SMOs" sheetId="1" r:id="rId1"/>
     <sheet name="Details Opérations" sheetId="2" r:id="rId2"/>
     <sheet name="Add relationship detail" sheetId="3" r:id="rId3"/>
-    <sheet name="Detail impact SMO sur modèle" sheetId="4" r:id="rId4"/>
-    <sheet name="Details operations" sheetId="5" r:id="rId5"/>
+    <sheet name="Details operations" sheetId="5" r:id="rId4"/>
+    <sheet name="Detail impact SMO sur modèle" sheetId="4" r:id="rId5"/>
+    <sheet name="TyphonQL operations by ChangeOp" sheetId="6" r:id="rId6"/>
+    <sheet name="List TyphonQL DDL Operations" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Details Opérations'!$A$2:$X$2</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="437">
   <si>
     <t>Entity type</t>
   </si>
@@ -992,12 +993,6 @@
     <t>Replace reference attribute with embedded object.(single or array depending on the cardinality)</t>
   </si>
   <si>
-    <t>Only for one-to-one rel not contained (isCOntainment = false).
-Create a new column to contain foreign key
-Create foreign key constraint.
-Complete data</t>
-  </si>
-  <si>
     <t>Replace multiple key value pairs of referenced entity with a single key value pair with the object.</t>
   </si>
   <si>
@@ -1164,9 +1159,6 @@
   </si>
   <si>
     <t>Entity, Databasename, Databasetype, Targetlogicalname</t>
-  </si>
-  <si>
-    <t>Ou mettre les noms des fonctions? Et les décrire dans Design?</t>
   </si>
   <si>
     <t>Create new Entity type
@@ -1367,12 +1359,210 @@
 Add new key value pairs (ex : Address:[ID]:street = ...)
 Add reference key value (ex : User:123:adressID = [ID] ; Adress:[ID]:userid = 123)</t>
   </si>
+  <si>
+    <t>creates a new Entity newEntity. It will eventually create a new table(Relational model) or create a new
+collection (document model) for entity newEntity in the polystore. Given indexes and identifiers should also be created.</t>
+  </si>
+  <si>
+    <t>createEntityType(Entity newEntity, Model model)</t>
+  </si>
+  <si>
+    <t>deleteAllEntityData(entityname, model)</t>
+  </si>
+  <si>
+    <t>deleteEntityStructure(entityname, model)</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>void createEntityType(EntityDO newEntity, Model model)</t>
+  </si>
+  <si>
+    <t>void renameEntity(String oldEntityName, String newEntityName, Model model)</t>
+  </si>
+  <si>
+    <t>Renames the entity $newEntityName$ to $oldEntityName$. This can lead to renaming of logical table or collection.</t>
+  </si>
+  <si>
+    <t>void deleteEntityStructure(String entityname, Model model)</t>
+  </si>
+  <si>
+    <t>Asks TyphonQL to delete the structure of an entity type.</t>
+  </si>
+  <si>
+    <t>void deleteAttributes(String entityname, List&lt;String&gt; attributes, Model model)</t>
+  </si>
+  <si>
+    <t>Deletes data and structures of the given attribute list in the given entity type</t>
+  </si>
+  <si>
+    <t>Depending on the underlying databases. Creates foreign key (for relational) or changes the way the data must be inserted (for NoSQL).</t>
+  </si>
+  <si>
+    <t>void deleteRelationship(RelationDO relation, boolean datadelete, Model model)</t>
+  </si>
+  <si>
+    <t>void enableContainment(String relationName, String entityname, Model model)</t>
+  </si>
+  <si>
+    <t>For NoSQL databases it implies the replacement of the reference attribute with the full target entity object. This operator is not available for relational databases.</t>
+  </si>
+  <si>
+    <t>void disableContainment(String relationName, String entityname, Model model)</t>
+  </si>
+  <si>
+    <t>Deletes data in the source entity and replace it with a reference attribute to the target entity data.</t>
+  </si>
+  <si>
+    <t>void changeCardinalityInRelation(String relationname, String entityname, CardinalityDO cardinality, Model model)</t>
+  </si>
+  <si>
+    <t>renameEntity(oldEntityName, newEntityName, model)</t>
+  </si>
+  <si>
+    <t>- readEntityDataEqualAttributeValue(sourceEntityName, attributeName, attributeValue, model)
+- writeWorkingSetData(dataTarget, targetModel)
+- deleteWorkingSetData(dataSource, model)</t>
+  </si>
+  <si>
+    <t>- createEntityType(Entity newEntity, Model model)
+- createRelationshipType(relation, targetModel)</t>
+  </si>
+  <si>
+    <t>void createRelationshipType(RelationDO relation, Model model)</t>
+  </si>
+  <si>
+    <t>- readEntityData(entity, attributelist)
+- writeWorkingSetData(dataTarget, targetModel)</t>
+  </si>
+  <si>
+    <t>void createAttribute(String entityname, Attribute attribute, Model model)</t>
+  </si>
+  <si>
+    <t>Creates a new attribute in the given entity. Result in a new column in relational. Nothing in document database</t>
+  </si>
+  <si>
+    <t>- createAttribute(entityname, attribute, model)
+- deleteRelationship(relation,model)
+- renameEntity(oldEntityName, newEntityName, model)</t>
+  </si>
+  <si>
+    <t>- readRelationshipData(relation, model)
+- writeWorkingSetData(data, model)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- createEntityType(Entity newEntity, Model model)
+- deleteEntityStructure(entityname, model)
+</t>
+  </si>
+  <si>
+    <t>- readAllEntityData(entityname, model)
+- writeWorkingSetData(data, model)
+- deleteWorkingSetData(dataSource, model)</t>
+  </si>
+  <si>
+    <t>- createRelationshipType(relation, targetModel)</t>
+  </si>
+  <si>
+    <t>- deleteRelationship(relation,model)</t>
+  </si>
+  <si>
+    <t>- enableContainment(relationName, entityname, model)</t>
+  </si>
+  <si>
+    <t>- disableContainment(relationName, entityname, model)</t>
+  </si>
+  <si>
+    <t>- deleteRelationship(relation, datadeleteflag, model)</t>
+  </si>
+  <si>
+    <t>Deletes the relationship. Implies reference attribute deletion or foreign key constraint deletion for relation data model. If data delete flag is true, the column or the join table are also deleted.</t>
+  </si>
+  <si>
+    <t>changeCardinalityInRelation(relationname, cardinality)</t>
+  </si>
+  <si>
+    <t>Changes the cardinality of the relationship. Can result in the creation of a join table. NoSQL no changes.</t>
+  </si>
+  <si>
+    <t>- createAttribute(entityname, attribute, model)</t>
+  </si>
+  <si>
+    <t>- deleteAttributes(entityname, attributes, model)</t>
+  </si>
+  <si>
+    <t>void renameAttribute(String entityname, oldattributename, newattributename)</t>
+  </si>
+  <si>
+    <t>Rename the attribute oldattributename to new attributename in the given entityname</t>
+  </si>
+  <si>
+    <t>- renameAttribute(entityname, oldattributename, newattributename)</t>
+  </si>
+  <si>
+    <t>Change the type of the given attribute.</t>
+  </si>
+  <si>
+    <t>changeAttribute(entityname, oldAttribute, newAttribute)</t>
+  </si>
+  <si>
+    <t>TyphonQL Data Manip. Functions implemented by evol tool. Using TyphonQL DML queries. Consist mainly in retrieving a Working Set, modifying it and rewrite it.</t>
+  </si>
+  <si>
+    <t>- deleteAttributeData(entityname, attribute)</t>
+  </si>
+  <si>
+    <t>addIndex(entityname, attributes)</t>
+  </si>
+  <si>
+    <t>removeIndex(entityname, attributes)</t>
+  </si>
+  <si>
+    <t>void changeAttribute(String entityname, Attribute oldAttribute, Attribute newAttribute)</t>
+  </si>
+  <si>
+    <t>addIndex(String entityname, List&lt;String&gt; attributesname)</t>
+  </si>
+  <si>
+    <t>removeIndex(String entityname, List&lt;String&gt; attributesname)</t>
+  </si>
+  <si>
+    <t>Adds an index to the given entity with the given attribute list</t>
+  </si>
+  <si>
+    <t>Removes the index based on the given attributes list.</t>
+  </si>
+  <si>
+    <t>Only for one-to-one rel not contained (isContainment = false).
+Create a new column to contain foreign key
+Create foreign key constraint.
+Complete data</t>
+  </si>
+  <si>
+    <t>Description of change operators impact on data models</t>
+  </si>
+  <si>
+    <t>(Without data deletion) Remove foreign keys and identifier constraints on ref column
+(With data deletion) Remove foreign keys and identifier constraints on ref column, delete foreign key column, delete join table</t>
+  </si>
+  <si>
+    <t>(Without data deletion) Nothing
+(With data deletion) Delete reference attribute in source and target entity</t>
+  </si>
+  <si>
+    <t>(Without data deletion) Nothing
+(With data deletion) Delete key value pairs with matching key</t>
+  </si>
+  <si>
+    <t>Specification in 'Add relationship details' . Serve as base of discussion.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1598,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1588,7 +1784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1755,6 +1951,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2038,22 +2267,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1328125" customWidth="1"/>
-    <col min="3" max="3" width="27.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="61" style="8" customWidth="1"/>
-    <col min="6" max="7" width="48.59765625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="43.59765625" style="31" customWidth="1"/>
+    <col min="6" max="7" width="48.5703125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" style="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2079,7 +2308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2334,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
       <c r="B3" s="20"/>
       <c r="C3" s="5" t="s">
@@ -2124,7 +2353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
@@ -2143,7 +2372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="20"/>
       <c r="C5" s="1" t="s">
@@ -2165,7 +2394,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="20"/>
       <c r="C6" s="1" t="s">
@@ -2184,7 +2413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
@@ -2202,7 +2431,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2451,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
@@ -2238,7 +2467,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
@@ -2254,7 +2483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="18"/>
       <c r="B11" s="20"/>
       <c r="C11" s="1" t="s">
@@ -2270,7 +2499,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="20"/>
       <c r="C12" s="7" t="s">
@@ -2286,7 +2515,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="20"/>
       <c r="C13" s="7" t="s">
@@ -2302,7 +2531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="20"/>
       <c r="C14" s="7" t="s">
@@ -2318,7 +2547,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="21"/>
       <c r="C15" s="2" t="s">
@@ -2338,7 +2567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>9</v>
       </c>
@@ -2361,7 +2590,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20"/>
       <c r="C17" s="1" t="s">
@@ -2378,7 +2607,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20"/>
       <c r="C18" s="1" t="s">
@@ -2394,7 +2623,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="1" t="s">
@@ -2413,7 +2642,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
@@ -2431,7 +2660,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>25</v>
       </c>
@@ -2454,7 +2683,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="5"/>
       <c r="C22" s="1" t="s">
@@ -2472,7 +2701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="26"/>
       <c r="C23" s="2" t="s">
@@ -2492,7 +2721,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>10</v>
       </c>
@@ -2512,7 +2741,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="5"/>
       <c r="C25" s="1" t="s">
@@ -2528,7 +2757,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
       <c r="B26" s="5"/>
       <c r="C26" s="1" t="s">
@@ -2544,7 +2773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
       <c r="B27" s="5"/>
       <c r="C27" s="1" t="s">
@@ -2562,7 +2791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="26"/>
       <c r="C28" s="2" t="s">
@@ -2580,7 +2809,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>28</v>
       </c>
@@ -2600,7 +2829,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="5"/>
       <c r="C30" s="7" t="s">
@@ -2616,7 +2845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
       <c r="B31" s="5"/>
       <c r="C31" s="7" t="s">
@@ -2634,7 +2863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="26"/>
       <c r="C32" s="27" t="s">
@@ -2652,7 +2881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>29</v>
       </c>
@@ -2672,7 +2901,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="5"/>
       <c r="C34" s="7" t="s">
@@ -2688,7 +2917,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="31"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="26"/>
       <c r="C35" s="16" t="s">
@@ -2706,7 +2935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="24" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>32</v>
       </c>
@@ -2728,7 +2957,7 @@
       <c r="G36" s="9"/>
       <c r="H36" s="31"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="26"/>
       <c r="C37" s="16" t="s">
@@ -2744,7 +2973,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="32"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>33</v>
       </c>
@@ -2759,7 +2988,7 @@
       </c>
       <c r="E38" s="14"/>
     </row>
-    <row r="39" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
       <c r="B39" s="5"/>
       <c r="C39" s="7" t="s">
@@ -2773,7 +3002,7 @@
       <c r="G39" s="9"/>
       <c r="H39" s="31"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="26"/>
       <c r="C40" s="16" t="s">
@@ -2787,7 +3016,7 @@
       <c r="G40" s="10"/>
       <c r="H40" s="32"/>
     </row>
-    <row r="41" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>36</v>
       </c>
@@ -2807,7 +3036,7 @@
       <c r="G41" s="9"/>
       <c r="H41" s="31"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="26"/>
       <c r="C42" s="16" t="s">
@@ -2823,7 +3052,7 @@
       <c r="G42" s="10"/>
       <c r="H42" s="32"/>
     </row>
-    <row r="43" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>37</v>
       </c>
@@ -2841,7 +3070,7 @@
       <c r="G43" s="9"/>
       <c r="H43" s="31"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="26"/>
       <c r="C44" s="16" t="s">
@@ -2857,7 +3086,7 @@
       <c r="G44" s="10"/>
       <c r="H44" s="32"/>
     </row>
-    <row r="45" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>38</v>
       </c>
@@ -2872,7 +3101,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18"/>
       <c r="B46" s="20"/>
       <c r="C46" s="7" t="s">
@@ -2888,7 +3117,7 @@
       <c r="G46" s="9"/>
       <c r="H46" s="31"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="21"/>
       <c r="C47" s="16" t="s">
@@ -2904,7 +3133,7 @@
       <c r="G47" s="10"/>
       <c r="H47" s="32"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>39</v>
       </c>
@@ -2919,7 +3148,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22"/>
       <c r="B49" s="5"/>
       <c r="C49" s="7" t="s">
@@ -2935,7 +3164,7 @@
       <c r="G49" s="9"/>
       <c r="H49" s="31"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="26"/>
       <c r="C50" s="16" t="s">
@@ -2951,7 +3180,7 @@
       <c r="G50" s="10"/>
       <c r="H50" s="32"/>
     </row>
-    <row r="57" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -2966,37 +3195,37 @@
       <pane xSplit="3" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.265625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
     <col min="4" max="4" width="28" style="8" customWidth="1"/>
-    <col min="5" max="6" width="27.86328125" customWidth="1"/>
+    <col min="5" max="6" width="27.85546875" customWidth="1"/>
     <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.59765625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
     <col min="12" max="12" width="22" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.73046875" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" customWidth="1"/>
-    <col min="18" max="18" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.86328125" customWidth="1"/>
-    <col min="21" max="21" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.86328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" customWidth="1"/>
+    <col min="21" max="21" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G1" s="73" t="s">
         <v>106</v>
       </c>
@@ -3028,7 +3257,7 @@
       <c r="W1" s="70"/>
       <c r="X1" s="71"/>
     </row>
-    <row r="2" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -3102,7 +3331,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3389,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="20"/>
       <c r="C4" s="5" t="s">
@@ -3210,7 +3439,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="20"/>
       <c r="C5" s="5" t="s">
@@ -3249,7 +3478,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="20"/>
       <c r="C6" s="5" t="s">
@@ -3291,7 +3520,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="20"/>
       <c r="C7" s="5" t="s">
@@ -3331,7 +3560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
       <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
@@ -3362,7 +3591,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
       <c r="B9" s="20"/>
       <c r="C9" s="1" t="s">
@@ -3390,7 +3619,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="18"/>
       <c r="B10" s="20"/>
       <c r="C10" s="1" t="s">
@@ -3417,7 +3646,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="21"/>
       <c r="C11" s="2" t="s">
@@ -3441,7 +3670,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>6</v>
       </c>
@@ -3483,7 +3712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="20"/>
       <c r="C13" s="1" t="s">
@@ -3510,7 +3739,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="20"/>
       <c r="C14" s="1" t="s">
@@ -3525,7 +3754,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="20"/>
       <c r="C15" s="1" t="s">
@@ -3540,7 +3769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="20"/>
       <c r="C16" s="1" t="s">
@@ -3555,7 +3784,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="20"/>
       <c r="C17" s="7" t="s">
@@ -3570,7 +3799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="20"/>
       <c r="C18" s="7" t="s">
@@ -3585,7 +3814,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="20"/>
       <c r="C19" s="7" t="s">
@@ -3600,7 +3829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
@@ -3615,7 +3844,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>9</v>
       </c>
@@ -3634,7 +3863,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="1" t="s">
@@ -3643,7 +3872,7 @@
       <c r="E22" s="47"/>
       <c r="F22" s="47"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="1" t="s">
@@ -3658,7 +3887,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="1" t="s">
@@ -3673,7 +3902,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="2" t="s">
@@ -3688,7 +3917,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>25</v>
       </c>
@@ -3707,7 +3936,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>10</v>
       </c>
@@ -3726,7 +3955,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="22"/>
       <c r="B28" s="5"/>
       <c r="C28" s="1" t="s">
@@ -3739,7 +3968,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="22"/>
       <c r="B29" s="5"/>
       <c r="C29" s="1" t="s">
@@ -3752,7 +3981,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
@@ -3765,7 +3994,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
@@ -3778,7 +4007,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
@@ -3797,7 +4026,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="22"/>
       <c r="B33" s="5"/>
       <c r="C33" s="7" t="s">
@@ -3810,7 +4039,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="22"/>
       <c r="B34" s="5"/>
       <c r="C34" s="7" t="s">
@@ -3823,7 +4052,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="26"/>
       <c r="C35" s="27" t="s">
@@ -3836,7 +4065,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>29</v>
       </c>
@@ -3852,7 +4081,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="26"/>
       <c r="C37" s="16" t="s">
@@ -3864,7 +4093,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>32</v>
       </c>
@@ -3880,7 +4109,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="26"/>
       <c r="C39" s="16" t="s">
@@ -3892,7 +4121,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>33</v>
       </c>
@@ -3911,7 +4140,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="22"/>
       <c r="B41" s="5"/>
       <c r="C41" s="7" t="s">
@@ -3923,7 +4152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="26"/>
       <c r="C42" s="16" t="s">
@@ -3935,7 +4164,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>36</v>
       </c>
@@ -3946,7 +4175,7 @@
       <c r="E43" s="40"/>
       <c r="F43" s="40"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="26"/>
       <c r="C44" s="16" t="s">
@@ -3955,7 +4184,7 @@
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>37</v>
       </c>
@@ -3966,7 +4195,7 @@
       <c r="E45" s="40"/>
       <c r="F45" s="40"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="26"/>
       <c r="C46" s="16" t="s">
@@ -3975,7 +4204,7 @@
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
     </row>
-    <row r="47" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>38</v>
       </c>
@@ -3989,7 +4218,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="18"/>
       <c r="B48" s="20"/>
       <c r="C48" s="7" t="s">
@@ -4001,7 +4230,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="21"/>
       <c r="C49" s="16" t="s">
@@ -4013,7 +4242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>39</v>
       </c>
@@ -4027,7 +4256,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="22"/>
       <c r="B51" s="5"/>
       <c r="C51" s="7" t="s">
@@ -4039,7 +4268,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="26"/>
       <c r="C52" s="16" t="s">
@@ -4073,24 +4302,24 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:XFD22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.73046875" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="72.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="114.73046875" customWidth="1"/>
-    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="114.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="C1" s="8" t="s">
         <v>230</v>
       </c>
@@ -4098,13 +4327,13 @@
         <v>241</v>
       </c>
       <c r="F1" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" t="s">
         <v>323</v>
       </c>
-      <c r="G1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>212</v>
       </c>
@@ -4136,7 +4365,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>213</v>
       </c>
@@ -4153,7 +4382,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>224</v>
       </c>
@@ -4170,7 +4399,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>223</v>
       </c>
@@ -4187,7 +4416,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>225</v>
       </c>
@@ -4204,7 +4433,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>221</v>
       </c>
@@ -4221,7 +4450,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>226</v>
       </c>
@@ -4238,7 +4467,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>227</v>
       </c>
@@ -4255,7 +4484,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>228</v>
       </c>
@@ -4272,7 +4501,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>229</v>
       </c>
@@ -4289,7 +4518,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>222</v>
       </c>
@@ -4306,7 +4535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>213</v>
       </c>
@@ -4317,13 +4546,13 @@
         <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>224</v>
       </c>
@@ -4334,13 +4563,13 @@
         <v>150</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>223</v>
       </c>
@@ -4351,13 +4580,13 @@
         <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G15" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>225</v>
       </c>
@@ -4368,13 +4597,13 @@
         <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>221</v>
       </c>
@@ -4385,13 +4614,13 @@
         <v>150</v>
       </c>
       <c r="F17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>226</v>
       </c>
@@ -4408,7 +4637,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>227</v>
       </c>
@@ -4419,13 +4648,13 @@
         <v>150</v>
       </c>
       <c r="F19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G19" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>228</v>
       </c>
@@ -4442,7 +4671,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>229</v>
       </c>
@@ -4453,13 +4682,13 @@
         <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>222</v>
       </c>
@@ -4470,7 +4699,7 @@
         <v>150</v>
       </c>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G22" t="s">
         <v>245</v>
@@ -4484,30 +4713,442 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>329</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15:G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.1328125" customWidth="1"/>
-    <col min="5" max="5" width="57.73046875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="49.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B1" s="49" t="s">
         <v>13</v>
@@ -4537,7 +5178,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
@@ -4545,25 +5186,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="66" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D2" s="49"/>
       <c r="E2" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="66" t="s">
         <v>317</v>
-      </c>
-      <c r="F2" s="66" t="s">
-        <v>318</v>
       </c>
       <c r="G2" s="49" t="s">
         <v>119</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I2" s="49"/>
       <c r="J2" s="49"/>
     </row>
-    <row r="3" spans="1:10" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
@@ -4573,19 +5214,19 @@
       <c r="C3" s="66"/>
       <c r="D3" s="49"/>
       <c r="E3" s="65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>320</v>
       </c>
-      <c r="F3" s="65" t="s">
+      <c r="G3" s="66" t="s">
         <v>321</v>
-      </c>
-      <c r="G3" s="66" t="s">
-        <v>322</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="49"/>
       <c r="J3" s="49"/>
     </row>
-    <row r="4" spans="1:10" s="24" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>0</v>
       </c>
@@ -4601,13 +5242,13 @@
         <v>194</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H4" s="49"/>
       <c r="I4" s="49"/>
       <c r="J4" s="49"/>
     </row>
-    <row r="5" spans="1:10" s="51" customFormat="1" ht="114" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" s="51" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>0</v>
       </c>
@@ -4615,22 +5256,22 @@
         <v>187</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>264</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="24" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>0</v>
       </c>
@@ -4638,13 +5279,13 @@
         <v>188</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>271</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>272</v>
@@ -4653,7 +5294,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>212</v>
       </c>
@@ -4676,7 +5317,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>212</v>
       </c>
@@ -4699,7 +5340,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>6</v>
       </c>
@@ -4717,13 +5358,13 @@
         <v>279</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>6</v>
       </c>
@@ -4747,7 +5388,7 @@
       <c r="I10" s="51"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="51" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>0</v>
       </c>
@@ -4761,7 +5402,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="51" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" s="51" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="56" t="s">
         <v>6</v>
       </c>
@@ -4769,39 +5410,39 @@
         <v>278</v>
       </c>
       <c r="E12" s="52" t="s">
-        <v>280</v>
+        <v>431</v>
       </c>
       <c r="F12" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="G12" s="59" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:10" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="56" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="56" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="E13" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="F13" s="59" t="s">
         <v>286</v>
       </c>
-      <c r="D13" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="F13" s="59" t="s">
+      <c r="G13" s="59" t="s">
         <v>287</v>
       </c>
-      <c r="G13" s="59" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="51" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:10" s="51" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>0</v>
       </c>
@@ -4809,11 +5450,11 @@
         <v>16</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E14" s="52"/>
     </row>
-    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>9</v>
       </c>
@@ -4821,10 +5462,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F15" s="59" t="s">
         <v>119</v>
@@ -4842,7 +5483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>9</v>
       </c>
@@ -4850,19 +5491,19 @@
         <v>142</v>
       </c>
       <c r="D16" s="63" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="E16" s="52" t="s">
-        <v>294</v>
-      </c>
-      <c r="F16" s="59" t="s">
+      <c r="G16" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="59" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="17" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>9</v>
       </c>
@@ -4870,21 +5511,21 @@
         <v>3</v>
       </c>
       <c r="D17" s="51" t="s">
+        <v>299</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>299</v>
+      </c>
+      <c r="G17" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="52" t="s">
+    </row>
+    <row r="18" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="56" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="51" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="56" t="s">
-        <v>302</v>
       </c>
       <c r="B18" s="56" t="s">
         <v>8</v>
@@ -4893,7 +5534,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="59" t="s">
         <v>119</v>
@@ -4902,7 +5543,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" s="51" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>10</v>
       </c>
@@ -4910,16 +5551,16 @@
         <v>1</v>
       </c>
       <c r="E19" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="59" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="G19" s="59" t="s">
         <v>305</v>
       </c>
-      <c r="G19" s="59" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="51" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="1:7" s="51" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
         <v>10</v>
       </c>
@@ -4927,16 +5568,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="G20" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="G20" s="59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>10</v>
       </c>
@@ -4944,16 +5585,16 @@
         <v>2</v>
       </c>
       <c r="E21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="G21" s="64" t="s">
         <v>311</v>
       </c>
-      <c r="G21" s="64" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="55" t="s">
         <v>10</v>
       </c>
@@ -4961,16 +5602,16 @@
         <v>12</v>
       </c>
       <c r="E22" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F22" s="59" t="s">
         <v>307</v>
       </c>
-      <c r="F22" s="59" t="s">
+      <c r="G22" s="59" t="s">
         <v>308</v>
       </c>
-      <c r="G22" s="59" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
         <v>28</v>
       </c>
@@ -4978,16 +5619,16 @@
         <v>1</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F23" s="53" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="55" t="s">
         <v>28</v>
       </c>
@@ -4995,16 +5636,16 @@
         <v>2</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F24" s="53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="55" t="s">
         <v>28</v>
       </c>
@@ -5012,10 +5653,10 @@
         <v>11</v>
       </c>
       <c r="E25" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="F25" s="53" t="s">
         <v>315</v>
-      </c>
-      <c r="F25" s="53" t="s">
-        <v>316</v>
       </c>
       <c r="G25" s="53" t="s">
         <v>119</v>
@@ -5027,411 +5668,613 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="25.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="57.5703125" customWidth="1"/>
+    <col min="4" max="4" width="79.140625" customWidth="1"/>
+    <col min="5" max="5" width="69.85546875" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A1" s="49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="49" t="s">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E1" s="48" t="s">
-        <v>330</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="49" t="s">
+      <c r="D1" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="82" t="s">
+        <v>432</v>
+      </c>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+    </row>
+    <row r="2" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>332</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E2" t="s">
-        <v>335</v>
-      </c>
-      <c r="I2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="49" t="s">
+      <c r="C3" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="49" t="s">
+      <c r="C4" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" s="85" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A5" s="50" t="s">
+      <c r="C5" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="84" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="49" t="s">
+      <c r="C6" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>397</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="81" t="s">
+        <v>272</v>
+      </c>
+      <c r="G6" s="86" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B7" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E6" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="C7" s="79" t="s">
+        <v>398</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="81" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="50" t="s">
+      <c r="F7" s="81" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="81" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B8" s="80" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="57" x14ac:dyDescent="0.45">
-      <c r="A8" s="56" t="s">
+      <c r="C8" s="79" t="s">
+        <v>403</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+    </row>
+    <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B9" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="48" t="s">
+      <c r="C9" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B10" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="48" t="s">
+      <c r="C10" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="F10" s="86" t="s">
+        <v>436</v>
+      </c>
+      <c r="G10" s="86" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="49" t="s">
+      <c r="C11" s="79" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" s="78"/>
+      <c r="E11" s="81" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B12" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="50" t="s">
+      <c r="C12" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" s="81" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B13" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="56" t="s">
+      <c r="C13" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="81" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B14" s="80" t="s">
         <v>278</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>431</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" s="86" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="80" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="G15" s="86" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A16" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="80" t="s">
         <v>359</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="56" t="s">
-        <v>284</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="56" t="s">
+      <c r="C16" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B17" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="56" t="s">
+      <c r="C17" s="79" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="79"/>
+      <c r="E17" s="81" t="s">
+        <v>291</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B18" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A18" s="56" t="s">
+      <c r="C18" s="79" t="s">
+        <v>416</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>423</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="86" t="s">
+        <v>296</v>
+      </c>
+      <c r="G18" s="86" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B19" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="56" t="s">
+      <c r="C19" s="79" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="81" t="s">
+        <v>298</v>
+      </c>
+      <c r="F19" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="79"/>
+      <c r="E20" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="56" t="s">
+      <c r="F20" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="86" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="80" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="55" t="s">
+      <c r="C21" s="79" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="79"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="80" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="55" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="79" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="75" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="75" t="s">
+        <v>417</v>
+      </c>
+      <c r="B6" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="75" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>390</v>
+      </c>
+      <c r="B9" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
+        <v>391</v>
+      </c>
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="75" t="s">
+        <v>393</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="75" t="s">
+        <v>395</v>
+      </c>
+      <c r="B12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B13" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="27" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
